--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\GitHub\network_majority_dynamics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326CA0D4-B949-4A26-B3AD-BBBC9093C66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB09B55-6734-4FC5-9579-21444C4FEA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADE51E6C-3D33-4C31-8C7B-BACC2D0CE021}"/>
+    <workbookView xWindow="348" yWindow="696" windowWidth="11436" windowHeight="11136" xr2:uid="{ADE51E6C-3D33-4C31-8C7B-BACC2D0CE021}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\GitHub\network_majority_dynamics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB09B55-6734-4FC5-9579-21444C4FEA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E84C43-E733-47BC-B10C-FB03544D4544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="696" windowWidth="11436" windowHeight="11136" xr2:uid="{ADE51E6C-3D33-4C31-8C7B-BACC2D0CE021}"/>
+    <workbookView xWindow="10776" yWindow="588" windowWidth="11436" windowHeight="10524" xr2:uid="{ADE51E6C-3D33-4C31-8C7B-BACC2D0CE021}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>CSG</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>F1 RANDOM</t>
+  </si>
+  <si>
+    <t>b250</t>
   </si>
 </sst>
 </file>
@@ -457,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F776FE-9FA5-4648-A721-C9051B417BC6}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,37 +524,37 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>629</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>710</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>484</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>712</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>560</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -559,37 +562,37 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>774</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>823</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>821</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>689</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>1181</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>991</v>
       </c>
       <c r="M5" t="s">
         <v>7</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>959</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>733</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -597,37 +600,37 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>908</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1048</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>1036</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>802</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>1807</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>1212</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>828</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -635,37 +638,75 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1018</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1379</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1294</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>1114</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2334</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>1670</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>1894</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1342</v>
+      </c>
+      <c r="C8">
+        <v>1703</v>
+      </c>
+      <c r="D8">
+        <v>1519</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1451</v>
+      </c>
+      <c r="I8">
+        <v>2490</v>
+      </c>
+      <c r="J8">
+        <v>2008</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>2784</v>
+      </c>
+      <c r="O8">
+        <v>1667</v>
+      </c>
+      <c r="P8">
+        <v>3719</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\GitHub\network_majority_dynamics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E84C43-E733-47BC-B10C-FB03544D4544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D614398-EC84-407F-9538-345BD21B1A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10776" yWindow="588" windowWidth="11436" windowHeight="10524" xr2:uid="{ADE51E6C-3D33-4C31-8C7B-BACC2D0CE021}"/>
+    <workbookView xWindow="444" yWindow="696" windowWidth="11436" windowHeight="10524" xr2:uid="{ADE51E6C-3D33-4C31-8C7B-BACC2D0CE021}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>MS</t>
   </si>
   <si>
-    <t xml:space="preserve">F3 </t>
-  </si>
-  <si>
     <t>budget</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>b250</t>
+  </si>
+  <si>
+    <t>F3  closeness</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F776FE-9FA5-4648-A721-C9051B417BC6}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,18 +472,18 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>629</v>
@@ -533,25 +533,25 @@
         <v>484</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>520</v>
       </c>
       <c r="I4">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="J4">
         <v>712</v>
       </c>
       <c r="M4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>701</v>
       </c>
       <c r="O4">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="P4">
         <v>689</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>774</v>
@@ -571,25 +571,25 @@
         <v>821</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>689</v>
       </c>
       <c r="I5">
-        <v>1181</v>
+        <v>733</v>
       </c>
       <c r="J5">
         <v>991</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>959</v>
       </c>
       <c r="O5">
-        <v>733</v>
+        <v>1181</v>
       </c>
       <c r="P5">
         <v>1053</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>908</v>
@@ -609,25 +609,25 @@
         <v>1036</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>802</v>
       </c>
       <c r="I6">
-        <v>1807</v>
+        <v>828</v>
       </c>
       <c r="J6">
         <v>1212</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>1350</v>
       </c>
       <c r="O6">
-        <v>828</v>
+        <v>1807</v>
       </c>
       <c r="P6">
         <v>1445</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1018</v>
@@ -647,25 +647,25 @@
         <v>1294</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>1114</v>
+        <v>1314</v>
       </c>
       <c r="I7">
-        <v>2334</v>
+        <v>1006</v>
       </c>
       <c r="J7">
         <v>1670</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <v>1894</v>
       </c>
       <c r="O7">
-        <v>1006</v>
+        <v>2334</v>
       </c>
       <c r="P7">
         <v>2309</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1342</v>
@@ -685,25 +685,25 @@
         <v>1519</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="I8">
-        <v>2490</v>
+        <v>1667</v>
       </c>
       <c r="J8">
         <v>2008</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>2784</v>
+        <v>2574</v>
       </c>
       <c r="O8">
-        <v>1667</v>
+        <v>2490</v>
       </c>
       <c r="P8">
         <v>3719</v>
